--- a/devices/AndroidDevices.xlsx
+++ b/devices/AndroidDevices.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="6435" yWindow="3495" windowWidth="19200" windowHeight="11640" activeTab="3"/>
+    <workbookView xWindow="6435" yWindow="3495" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="device1" sheetId="1" r:id="rId1"/>
@@ -152,10 +152,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4.4.2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>browser</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -212,13 +208,17 @@
   <si>
     <t>device4</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.4.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -445,7 +445,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -504,7 +504,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
@@ -550,7 +550,7 @@
           <bgColor theme="3" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -569,7 +569,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -628,7 +628,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
@@ -674,7 +674,7 @@
           <bgColor theme="3" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -693,7 +693,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -752,7 +752,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
@@ -798,7 +798,7 @@
           <bgColor theme="3" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -817,7 +817,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -876,7 +876,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
@@ -922,7 +922,7 @@
           <bgColor theme="3" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1282,21 +1282,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="21.125" customWidth="1"/>
     <col min="3" max="3" width="40.625" customWidth="1"/>
     <col min="4" max="4" width="41.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1318,13 +1318,13 @@
         <v>4</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1338,7 +1338,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1366,7 +1366,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1380,7 +1380,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1394,7 +1394,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1433,21 +1433,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="21.125" customWidth="1"/>
     <col min="3" max="3" width="40.625" customWidth="1"/>
     <col min="4" max="4" width="41.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -1461,7 +1461,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1469,13 +1469,13 @@
         <v>4</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1517,7 +1517,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1539,38 +1539,38 @@
         <v>33</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="D8" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="15">
         <v>4726</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1583,21 +1583,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="21.125" customWidth="1"/>
     <col min="3" max="3" width="40.625" customWidth="1"/>
     <col min="4" max="4" width="41.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -1611,7 +1611,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1619,13 +1619,13 @@
         <v>4</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1633,13 +1633,13 @@
         <v>6</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1661,13 +1661,13 @@
         <v>11</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1675,13 +1675,13 @@
         <v>31</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1689,38 +1689,38 @@
         <v>14</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="D8" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="15">
         <v>4728</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1733,21 +1733,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="21.125" customWidth="1"/>
     <col min="3" max="3" width="40.625" customWidth="1"/>
     <col min="4" max="4" width="41.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -1761,7 +1761,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1769,13 +1769,13 @@
         <v>4</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1783,13 +1783,13 @@
         <v>6</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1803,7 +1803,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1811,13 +1811,13 @@
         <v>11</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1825,13 +1825,13 @@
         <v>31</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1839,38 +1839,38 @@
         <v>14</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="D8" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="15">
         <v>4730</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/devices/AndroidDevices.xlsx
+++ b/devices/AndroidDevices.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="6435" yWindow="3495" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="6435" yWindow="3495" windowWidth="19200" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="device1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="51">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -212,6 +212,10 @@
   <si>
     <t>4.4.1</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>127.0.0.1:62025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1436,7 +1440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -1586,8 +1590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -1661,7 +1665,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>12</v>

--- a/devices/AndroidDevices.xlsx
+++ b/devices/AndroidDevices.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="6435" yWindow="3495" windowWidth="19200" windowHeight="11640" activeTab="2"/>
+    <workbookView xWindow="6435" yWindow="3495" windowWidth="19200" windowHeight="11640" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="device1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="47">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -48,10 +48,6 @@
   </si>
   <si>
     <t>nodeURL</t>
-  </si>
-  <si>
-    <t>appium-server 地址</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>platformName</t>
@@ -98,14 +94,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>bootstrapPort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通信端口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>deviceName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -113,23 +101,11 @@
     <t>209e61b5</t>
   </si>
   <si>
-    <t>127.0.0.1:4723</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>value</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>127.0.0.1:4725</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>appium-server 地址</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -164,26 +140,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>bootstrapPort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通信端口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>127.0.0.1:4727</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>127.0.0.1:62025</t>
   </si>
   <si>
     <t>4.2.2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>127.0.0.1:4729</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -215,6 +175,29 @@
   </si>
   <si>
     <t>127.0.0.1:62025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ipAddress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>127.0.0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP地址</t>
+  </si>
+  <si>
+    <t>IP地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>127.0.0.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -394,7 +377,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -424,9 +407,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -434,9 +414,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -949,8 +927,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:D9" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25">
-  <autoFilter ref="A1:D9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:D8" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25">
+  <autoFilter ref="A1:D8"/>
   <tableColumns count="4">
     <tableColumn id="1" name="序号" dataDxfId="24"/>
     <tableColumn id="2" name="name" dataDxfId="23"/>
@@ -962,8 +940,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A1:D9" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18">
-  <autoFilter ref="A1:D9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A1:D8" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18">
+  <autoFilter ref="A1:D8"/>
   <tableColumns count="4">
     <tableColumn id="1" name="序号" dataDxfId="17"/>
     <tableColumn id="2" name="name" dataDxfId="16"/>
@@ -975,8 +953,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表1_4" displayName="表1_4" ref="A1:D9" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11">
-  <autoFilter ref="A1:D9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表1_4" displayName="表1_4" ref="A1:D8" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11">
+  <autoFilter ref="A1:D8"/>
   <tableColumns count="4">
     <tableColumn id="1" name="序号" dataDxfId="10"/>
     <tableColumn id="2" name="name" dataDxfId="9"/>
@@ -988,8 +966,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表1_5" displayName="表1_5" ref="A1:D9" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
-  <autoFilter ref="A1:D9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表1_5" displayName="表1_5" ref="A1:D8" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
+  <autoFilter ref="A1:D8"/>
   <tableColumns count="4">
     <tableColumn id="1" name="序号" dataDxfId="3"/>
     <tableColumn id="2" name="name" dataDxfId="2"/>
@@ -1287,10 +1265,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -1322,7 +1300,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>5</v>
@@ -1332,14 +1310,14 @@
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>7</v>
+      <c r="B3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1347,13 +1325,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="8" t="s">
         <v>9</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1361,13 +1339,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>11</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1375,13 +1353,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1389,41 +1367,27 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="D7" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="14" t="s">
+      <c r="B8" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>17</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="15">
-        <v>4724</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1438,10 +1402,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -1453,13 +1417,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>3</v>
@@ -1473,7 +1437,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>5</v>
@@ -1483,14 +1447,14 @@
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>28</v>
+      <c r="B3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1498,13 +1462,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1512,13 +1476,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>11</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1526,13 +1490,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1540,41 +1504,27 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="15">
-        <v>4726</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>38</v>
+      <c r="B8" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1588,10 +1538,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -1603,13 +1553,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>3</v>
@@ -1623,7 +1573,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>5</v>
@@ -1637,10 +1587,10 @@
         <v>6</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1648,13 +1598,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1662,13 +1612,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>11</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1676,13 +1626,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="D6" s="8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1690,41 +1640,27 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="15">
-        <v>4728</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>38</v>
+      <c r="B8" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1738,10 +1674,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -1753,13 +1689,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>3</v>
@@ -1773,7 +1709,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>5</v>
@@ -1787,10 +1723,10 @@
         <v>6</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1798,13 +1734,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1812,13 +1748,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>11</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1826,13 +1762,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1840,41 +1776,27 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="15">
-        <v>4730</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>38</v>
+      <c r="B8" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/devices/AndroidDevices.xlsx
+++ b/devices/AndroidDevices.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="6435" yWindow="3495" windowWidth="19200" windowHeight="11640" activeTab="3"/>
+    <workbookView xWindow="6435" yWindow="3495" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="device1" sheetId="1" r:id="rId1"/>
@@ -197,7 +197,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>IP地址</t>
+    <t>app运行平台:Android/IOS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -928,7 +928,6 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:D8" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25">
-  <autoFilter ref="A1:D8"/>
   <tableColumns count="4">
     <tableColumn id="1" name="序号" dataDxfId="24"/>
     <tableColumn id="2" name="name" dataDxfId="23"/>
@@ -1267,15 +1266,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="21.125" customWidth="1"/>
-    <col min="3" max="3" width="40.625" customWidth="1"/>
-    <col min="4" max="4" width="41.625" customWidth="1"/>
+    <col min="2" max="2" width="18.25" customWidth="1"/>
+    <col min="3" max="3" width="17.875" customWidth="1"/>
+    <col min="4" max="4" width="24.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1317,7 +1316,7 @@
         <v>42</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1331,7 +1330,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1676,7 +1675,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>

--- a/devices/AndroidDevices.xlsx
+++ b/devices/AndroidDevices.xlsx
@@ -98,9 +98,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>209e61b5</t>
-  </si>
-  <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -199,6 +196,9 @@
   <si>
     <t>app运行平台:Android/IOS</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>209e61b5</t>
   </si>
 </sst>
 </file>
@@ -419,7 +419,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="30">
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -916,8 +916,35 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="29"/>
+      <tableStyleElement type="headerRow" dxfId="28"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1267,7 +1294,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -1299,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>5</v>
@@ -1310,13 +1337,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="D3" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1330,7 +1357,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1341,7 +1368,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>11</v>
@@ -1355,7 +1382,7 @@
         <v>19</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>12</v>
@@ -1416,13 +1443,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>3</v>
@@ -1436,7 +1463,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>5</v>
@@ -1447,13 +1474,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="D3" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1464,7 +1491,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>9</v>
@@ -1478,7 +1505,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>11</v>
@@ -1489,13 +1516,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1503,10 +1530,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>15</v>
@@ -1517,13 +1544,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="D8" s="11" t="s">
         <v>29</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1552,13 +1579,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>3</v>
@@ -1572,7 +1599,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>5</v>
@@ -1586,10 +1613,10 @@
         <v>6</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1600,7 +1627,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>9</v>
@@ -1614,7 +1641,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>11</v>
@@ -1625,13 +1652,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1642,7 +1669,7 @@
         <v>13</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>15</v>
@@ -1653,13 +1680,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="D8" s="11" t="s">
         <v>29</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1688,13 +1715,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>3</v>
@@ -1708,7 +1735,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>5</v>
@@ -1722,10 +1749,10 @@
         <v>6</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1736,7 +1763,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>9</v>
@@ -1750,7 +1777,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>11</v>
@@ -1761,13 +1788,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1778,7 +1805,7 @@
         <v>13</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>15</v>
@@ -1789,13 +1816,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="D8" s="11" t="s">
         <v>29</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
